--- a/www/ig/nos/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
@@ -32,13 +32,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.176</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.176</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T12:00:00+01:00</t>
+    <t>2024-02-23T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -131,7 +131,7 @@
     <t>FON-07</t>
   </si>
   <si>
-    <t>Gérant après décès</t>
+    <t>Gérant après incapacité ou décès</t>
   </si>
   <si>
     <t>FON-09</t>
@@ -149,7 +149,7 @@
     <t>FON-16</t>
   </si>
   <si>
-    <t>Directeur adjoint de laboratoire</t>
+    <t>Directeur-adjoint de laboratoire</t>
   </si>
   <si>
     <t>FON-17</t>

--- a/www/ig/nos/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="197">
   <si>
     <t>Property</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-23T12:00:00+01:00</t>
+    <t>2024-06-28T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -74,7 +74,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -332,15 +338,24 @@
     <t>Docteur junior</t>
   </si>
   <si>
+    <t>FON-58</t>
+  </si>
+  <si>
+    <t>Activité en piscine ou bassin</t>
+  </si>
+  <si>
+    <t>FON-59</t>
+  </si>
+  <si>
+    <t>Gérant d'antenne</t>
+  </si>
+  <si>
     <t>FON-AU</t>
   </si>
   <si>
     <t>Fonction non définie</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>System URI</t>
   </si>
   <si>
@@ -546,6 +561,36 @@
   </si>
   <si>
     <t>Conseiller en génétique</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>Secrétaire médicale</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>Assistant médical</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>Responsable de secteur</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>Biologiste médical ni médecin ni pharmacien</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>Gestionnaire alertes et urgences sanitaires</t>
   </si>
   <si>
     <t>350</t>
@@ -694,7 +739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -800,20 +845,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -823,7 +876,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -835,346 +888,362 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1196,50 +1265,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1249,7 +1318,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1261,282 +1330,322 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>107</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>181</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="182">
   <si>
     <t>Property</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:00:00+01:00</t>
+    <t>2024-02-23T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -74,288 +74,273 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Ensemble des fonctions et rôles du RASS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>FON-01</t>
+  </si>
+  <si>
+    <t>Titulaire de cabinet</t>
+  </si>
+  <si>
+    <t>FON-02</t>
+  </si>
+  <si>
+    <t>Associé dans une société d'exercice (SEL ou SCP)</t>
+  </si>
+  <si>
+    <t>FON-03</t>
+  </si>
+  <si>
+    <t>Titulaire d'officine</t>
+  </si>
+  <si>
+    <t>FON-04</t>
+  </si>
+  <si>
+    <t>Remplaçant du titulaire d'officine</t>
+  </si>
+  <si>
+    <t>FON-05</t>
+  </si>
+  <si>
+    <t>Adjoint</t>
+  </si>
+  <si>
+    <t>FON-07</t>
+  </si>
+  <si>
+    <t>Gérant après incapacité ou décès</t>
+  </si>
+  <si>
+    <t>FON-09</t>
+  </si>
+  <si>
+    <t>Responsable d'établissement</t>
+  </si>
+  <si>
+    <t>FON-15</t>
+  </si>
+  <si>
+    <t>Directeur de laboratoire</t>
+  </si>
+  <si>
+    <t>FON-16</t>
+  </si>
+  <si>
+    <t>Directeur-adjoint de laboratoire</t>
+  </si>
+  <si>
+    <t>FON-17</t>
+  </si>
+  <si>
+    <t>Collaborateur</t>
+  </si>
+  <si>
+    <t>FON-18</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>FON-19</t>
+  </si>
+  <si>
+    <t>Praticien Conseil</t>
+  </si>
+  <si>
+    <t>FON-21</t>
+  </si>
+  <si>
+    <t>Médecin scolaire</t>
+  </si>
+  <si>
+    <t>FON-22</t>
+  </si>
+  <si>
+    <t>Remplaçant, intérimaire, intermittent</t>
+  </si>
+  <si>
+    <t>FON-23</t>
+  </si>
+  <si>
+    <t>Gérant</t>
+  </si>
+  <si>
+    <t>FON-24</t>
+  </si>
+  <si>
+    <t>Médecin de santé publique</t>
+  </si>
+  <si>
+    <t>FON-29</t>
+  </si>
+  <si>
+    <t>Médecin du travail</t>
+  </si>
+  <si>
+    <t>FON-32</t>
+  </si>
+  <si>
+    <t>Régulateur libéral</t>
+  </si>
+  <si>
+    <t>FON-33</t>
+  </si>
+  <si>
+    <t>Salarié en poste fixe</t>
+  </si>
+  <si>
+    <t>FON-36</t>
+  </si>
+  <si>
+    <t>Délégué</t>
+  </si>
+  <si>
+    <t>FON-37</t>
+  </si>
+  <si>
+    <t>Gérant de PUI</t>
+  </si>
+  <si>
+    <t>FON-39</t>
+  </si>
+  <si>
+    <t>Exercice en PMI</t>
+  </si>
+  <si>
+    <t>FON-40</t>
+  </si>
+  <si>
+    <t>Biologiste responsable</t>
+  </si>
+  <si>
+    <t>FON-41</t>
+  </si>
+  <si>
+    <t>Biologiste médical</t>
+  </si>
+  <si>
+    <t>FON-42</t>
+  </si>
+  <si>
+    <t>Assistant collaborateur</t>
+  </si>
+  <si>
+    <t>FON-43</t>
+  </si>
+  <si>
+    <t>Cadre de santé</t>
+  </si>
+  <si>
+    <t>FON-45</t>
+  </si>
+  <si>
+    <t>Directeur des soins</t>
+  </si>
+  <si>
+    <t>FON-46</t>
+  </si>
+  <si>
+    <t>Enseignant salarié</t>
+  </si>
+  <si>
+    <t>FON-47</t>
+  </si>
+  <si>
+    <t>Etudiant remplaçant, adjoint</t>
+  </si>
+  <si>
+    <t>FON-48</t>
+  </si>
+  <si>
+    <t>Interne</t>
+  </si>
+  <si>
+    <t>FON-49</t>
+  </si>
+  <si>
+    <t>Pharmacien responsable BPDO</t>
+  </si>
+  <si>
+    <t>FON-50</t>
+  </si>
+  <si>
+    <t>Pharmacien adjoint BPDO</t>
+  </si>
+  <si>
+    <t>FON-51</t>
+  </si>
+  <si>
+    <t>Remplacement partiel</t>
+  </si>
+  <si>
+    <t>FON-52</t>
+  </si>
+  <si>
+    <t>Etudiant militaire</t>
+  </si>
+  <si>
+    <t>FON-53</t>
+  </si>
+  <si>
+    <t>Médecin assistant</t>
+  </si>
+  <si>
+    <t>FON-54</t>
+  </si>
+  <si>
+    <t>Permanence des soins ambulatoires hors cabinet</t>
+  </si>
+  <si>
+    <t>FON-55</t>
+  </si>
+  <si>
+    <t>Participation libérale aux missions de service public d'un ES</t>
+  </si>
+  <si>
+    <t>FON-56</t>
+  </si>
+  <si>
+    <t>Intervention libérale dans le cadre d'un GCS</t>
+  </si>
+  <si>
+    <t>FON-57</t>
+  </si>
+  <si>
+    <t>Docteur junior</t>
+  </si>
+  <si>
+    <t>FON-AU</t>
+  </si>
+  <si>
+    <t>Fonction non définie</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Ensemble des fonctions et rôles du RASS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>FON-01</t>
-  </si>
-  <si>
-    <t>Titulaire de cabinet</t>
-  </si>
-  <si>
-    <t>FON-02</t>
-  </si>
-  <si>
-    <t>Associé dans une société d'exercice (SEL ou SCP)</t>
-  </si>
-  <si>
-    <t>FON-03</t>
-  </si>
-  <si>
-    <t>Titulaire d'officine</t>
-  </si>
-  <si>
-    <t>FON-04</t>
-  </si>
-  <si>
-    <t>Remplaçant du titulaire d'officine</t>
-  </si>
-  <si>
-    <t>FON-05</t>
-  </si>
-  <si>
-    <t>Adjoint</t>
-  </si>
-  <si>
-    <t>FON-07</t>
-  </si>
-  <si>
-    <t>Gérant après incapacité ou décès</t>
-  </si>
-  <si>
-    <t>FON-09</t>
-  </si>
-  <si>
-    <t>Responsable d'établissement</t>
-  </si>
-  <si>
-    <t>FON-15</t>
-  </si>
-  <si>
-    <t>Directeur de laboratoire</t>
-  </si>
-  <si>
-    <t>FON-16</t>
-  </si>
-  <si>
-    <t>Directeur-adjoint de laboratoire</t>
-  </si>
-  <si>
-    <t>FON-17</t>
-  </si>
-  <si>
-    <t>Collaborateur</t>
-  </si>
-  <si>
-    <t>FON-18</t>
-  </si>
-  <si>
-    <t>Assistant</t>
-  </si>
-  <si>
-    <t>FON-19</t>
-  </si>
-  <si>
-    <t>Praticien Conseil</t>
-  </si>
-  <si>
-    <t>FON-21</t>
-  </si>
-  <si>
-    <t>Médecin scolaire</t>
-  </si>
-  <si>
-    <t>FON-22</t>
-  </si>
-  <si>
-    <t>Remplaçant, intérimaire, intermittent</t>
-  </si>
-  <si>
-    <t>FON-23</t>
-  </si>
-  <si>
-    <t>Gérant</t>
-  </si>
-  <si>
-    <t>FON-24</t>
-  </si>
-  <si>
-    <t>Médecin de santé publique</t>
-  </si>
-  <si>
-    <t>FON-29</t>
-  </si>
-  <si>
-    <t>Médecin du travail</t>
-  </si>
-  <si>
-    <t>FON-32</t>
-  </si>
-  <si>
-    <t>Régulateur libéral</t>
-  </si>
-  <si>
-    <t>FON-33</t>
-  </si>
-  <si>
-    <t>Salarié en poste fixe</t>
-  </si>
-  <si>
-    <t>FON-36</t>
-  </si>
-  <si>
-    <t>Délégué</t>
-  </si>
-  <si>
-    <t>FON-37</t>
-  </si>
-  <si>
-    <t>Gérant de PUI</t>
-  </si>
-  <si>
-    <t>FON-39</t>
-  </si>
-  <si>
-    <t>Exercice en PMI</t>
-  </si>
-  <si>
-    <t>FON-40</t>
-  </si>
-  <si>
-    <t>Biologiste responsable</t>
-  </si>
-  <si>
-    <t>FON-41</t>
-  </si>
-  <si>
-    <t>Biologiste médical</t>
-  </si>
-  <si>
-    <t>FON-42</t>
-  </si>
-  <si>
-    <t>Assistant collaborateur</t>
-  </si>
-  <si>
-    <t>FON-43</t>
-  </si>
-  <si>
-    <t>Cadre de santé</t>
-  </si>
-  <si>
-    <t>FON-45</t>
-  </si>
-  <si>
-    <t>Directeur des soins</t>
-  </si>
-  <si>
-    <t>FON-46</t>
-  </si>
-  <si>
-    <t>Enseignant salarié</t>
-  </si>
-  <si>
-    <t>FON-47</t>
-  </si>
-  <si>
-    <t>Etudiant remplaçant, adjoint</t>
-  </si>
-  <si>
-    <t>FON-48</t>
-  </si>
-  <si>
-    <t>Interne</t>
-  </si>
-  <si>
-    <t>FON-49</t>
-  </si>
-  <si>
-    <t>Pharmacien responsable BPDO</t>
-  </si>
-  <si>
-    <t>FON-50</t>
-  </si>
-  <si>
-    <t>Pharmacien adjoint BPDO</t>
-  </si>
-  <si>
-    <t>FON-51</t>
-  </si>
-  <si>
-    <t>Remplacement partiel</t>
-  </si>
-  <si>
-    <t>FON-52</t>
-  </si>
-  <si>
-    <t>Etudiant militaire</t>
-  </si>
-  <si>
-    <t>FON-53</t>
-  </si>
-  <si>
-    <t>Médecin assistant</t>
-  </si>
-  <si>
-    <t>FON-54</t>
-  </si>
-  <si>
-    <t>Permanence des soins ambulatoires hors cabinet</t>
-  </si>
-  <si>
-    <t>FON-55</t>
-  </si>
-  <si>
-    <t>Participation libérale aux missions de service public d'un ES</t>
-  </si>
-  <si>
-    <t>FON-56</t>
-  </si>
-  <si>
-    <t>Intervention libérale dans le cadre d'un GCS</t>
-  </si>
-  <si>
-    <t>FON-57</t>
-  </si>
-  <si>
-    <t>Docteur junior</t>
-  </si>
-  <si>
-    <t>FON-58</t>
-  </si>
-  <si>
-    <t>Activité en piscine ou bassin</t>
-  </si>
-  <si>
-    <t>FON-59</t>
-  </si>
-  <si>
-    <t>Gérant d'antenne</t>
-  </si>
-  <si>
-    <t>FON-AU</t>
-  </si>
-  <si>
-    <t>Fonction non définie</t>
-  </si>
-  <si>
     <t>System URI</t>
   </si>
   <si>
@@ -561,36 +546,6 @@
   </si>
   <si>
     <t>Conseiller en génétique</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>Secrétaire médicale</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>Assistant médical</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>Responsable de secteur</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>Biologiste médical ni médecin ni pharmacien</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>Gestionnaire alertes et urgences sanitaires</t>
   </si>
   <si>
     <t>350</t>
@@ -739,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -845,28 +800,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -876,7 +823,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -888,362 +835,346 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1265,50 +1196,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1318,7 +1249,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1330,322 +1261,282 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>187</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="196">
   <si>
     <t>Property</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -77,283 +77,280 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Ensemble des fonctions et rôles du RASS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>FON-01</t>
+  </si>
+  <si>
+    <t>Titulaire de cabinet</t>
+  </si>
+  <si>
+    <t>FON-02</t>
+  </si>
+  <si>
+    <t>Associé dans une société d'exercice (SEL ou SCP)</t>
+  </si>
+  <si>
+    <t>FON-03</t>
+  </si>
+  <si>
+    <t>Titulaire d'officine</t>
+  </si>
+  <si>
+    <t>FON-04</t>
+  </si>
+  <si>
+    <t>Remplaçant du titulaire d'officine</t>
+  </si>
+  <si>
+    <t>FON-05</t>
+  </si>
+  <si>
+    <t>Adjoint</t>
+  </si>
+  <si>
+    <t>FON-07</t>
+  </si>
+  <si>
+    <t>Gérant après incapacité ou décès</t>
+  </si>
+  <si>
+    <t>FON-09</t>
+  </si>
+  <si>
+    <t>Responsable d'établissement</t>
+  </si>
+  <si>
+    <t>FON-15</t>
+  </si>
+  <si>
+    <t>Directeur de laboratoire</t>
+  </si>
+  <si>
+    <t>FON-16</t>
+  </si>
+  <si>
+    <t>Directeur-adjoint de laboratoire</t>
+  </si>
+  <si>
+    <t>FON-17</t>
+  </si>
+  <si>
+    <t>Collaborateur</t>
+  </si>
+  <si>
+    <t>FON-18</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>FON-19</t>
+  </si>
+  <si>
+    <t>Praticien Conseil</t>
+  </si>
+  <si>
+    <t>FON-21</t>
+  </si>
+  <si>
+    <t>Médecin scolaire</t>
+  </si>
+  <si>
+    <t>FON-22</t>
+  </si>
+  <si>
+    <t>Remplaçant, intérimaire, intermittent</t>
+  </si>
+  <si>
+    <t>FON-23</t>
+  </si>
+  <si>
+    <t>Gérant</t>
+  </si>
+  <si>
+    <t>FON-24</t>
+  </si>
+  <si>
+    <t>Médecin de santé publique</t>
+  </si>
+  <si>
+    <t>FON-29</t>
+  </si>
+  <si>
+    <t>Médecin du travail</t>
+  </si>
+  <si>
+    <t>FON-32</t>
+  </si>
+  <si>
+    <t>Régulateur libéral</t>
+  </si>
+  <si>
+    <t>FON-33</t>
+  </si>
+  <si>
+    <t>Salarié en poste fixe</t>
+  </si>
+  <si>
+    <t>FON-36</t>
+  </si>
+  <si>
+    <t>Délégué</t>
+  </si>
+  <si>
+    <t>FON-37</t>
+  </si>
+  <si>
+    <t>Gérant de PUI</t>
+  </si>
+  <si>
+    <t>FON-39</t>
+  </si>
+  <si>
+    <t>Exercice en PMI</t>
+  </si>
+  <si>
+    <t>FON-40</t>
+  </si>
+  <si>
+    <t>Biologiste responsable</t>
+  </si>
+  <si>
+    <t>FON-41</t>
+  </si>
+  <si>
+    <t>Biologiste médical</t>
+  </si>
+  <si>
+    <t>FON-42</t>
+  </si>
+  <si>
+    <t>Assistant collaborateur</t>
+  </si>
+  <si>
+    <t>FON-43</t>
+  </si>
+  <si>
+    <t>Cadre de santé</t>
+  </si>
+  <si>
+    <t>FON-45</t>
+  </si>
+  <si>
+    <t>Directeur des soins</t>
+  </si>
+  <si>
+    <t>FON-46</t>
+  </si>
+  <si>
+    <t>Enseignant salarié</t>
+  </si>
+  <si>
+    <t>FON-47</t>
+  </si>
+  <si>
+    <t>Etudiant remplaçant, adjoint</t>
+  </si>
+  <si>
+    <t>FON-48</t>
+  </si>
+  <si>
+    <t>Interne</t>
+  </si>
+  <si>
+    <t>FON-49</t>
+  </si>
+  <si>
+    <t>Pharmacien responsable BPDO</t>
+  </si>
+  <si>
+    <t>FON-50</t>
+  </si>
+  <si>
+    <t>Pharmacien adjoint BPDO</t>
+  </si>
+  <si>
+    <t>FON-51</t>
+  </si>
+  <si>
+    <t>Remplacement partiel</t>
+  </si>
+  <si>
+    <t>FON-52</t>
+  </si>
+  <si>
+    <t>Etudiant militaire</t>
+  </si>
+  <si>
+    <t>FON-53</t>
+  </si>
+  <si>
+    <t>Médecin assistant</t>
+  </si>
+  <si>
+    <t>FON-54</t>
+  </si>
+  <si>
+    <t>Permanence des soins ambulatoires hors cabinet</t>
+  </si>
+  <si>
+    <t>FON-55</t>
+  </si>
+  <si>
+    <t>Participation libérale aux missions de service public d'un ES</t>
+  </si>
+  <si>
+    <t>FON-56</t>
+  </si>
+  <si>
+    <t>Intervention libérale dans le cadre d'un GCS</t>
+  </si>
+  <si>
+    <t>FON-57</t>
+  </si>
+  <si>
+    <t>Docteur junior</t>
+  </si>
+  <si>
+    <t>FON-58</t>
+  </si>
+  <si>
+    <t>Activité en piscine ou bassin</t>
+  </si>
+  <si>
+    <t>FON-59</t>
+  </si>
+  <si>
+    <t>Gérant d'antenne</t>
+  </si>
+  <si>
+    <t>FON-AU</t>
+  </si>
+  <si>
+    <t>Fonction non définie</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Ensemble des fonctions et rôles du RASS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>FON-01</t>
-  </si>
-  <si>
-    <t>Titulaire de cabinet</t>
-  </si>
-  <si>
-    <t>FON-02</t>
-  </si>
-  <si>
-    <t>Associé dans une société d'exercice (SEL ou SCP)</t>
-  </si>
-  <si>
-    <t>FON-03</t>
-  </si>
-  <si>
-    <t>Titulaire d'officine</t>
-  </si>
-  <si>
-    <t>FON-04</t>
-  </si>
-  <si>
-    <t>Remplaçant du titulaire d'officine</t>
-  </si>
-  <si>
-    <t>FON-05</t>
-  </si>
-  <si>
-    <t>Adjoint</t>
-  </si>
-  <si>
-    <t>FON-07</t>
-  </si>
-  <si>
-    <t>Gérant après incapacité ou décès</t>
-  </si>
-  <si>
-    <t>FON-09</t>
-  </si>
-  <si>
-    <t>Responsable d'établissement</t>
-  </si>
-  <si>
-    <t>FON-15</t>
-  </si>
-  <si>
-    <t>Directeur de laboratoire</t>
-  </si>
-  <si>
-    <t>FON-16</t>
-  </si>
-  <si>
-    <t>Directeur-adjoint de laboratoire</t>
-  </si>
-  <si>
-    <t>FON-17</t>
-  </si>
-  <si>
-    <t>Collaborateur</t>
-  </si>
-  <si>
-    <t>FON-18</t>
-  </si>
-  <si>
-    <t>Assistant</t>
-  </si>
-  <si>
-    <t>FON-19</t>
-  </si>
-  <si>
-    <t>Praticien Conseil</t>
-  </si>
-  <si>
-    <t>FON-21</t>
-  </si>
-  <si>
-    <t>Médecin scolaire</t>
-  </si>
-  <si>
-    <t>FON-22</t>
-  </si>
-  <si>
-    <t>Remplaçant, intérimaire, intermittent</t>
-  </si>
-  <si>
-    <t>FON-23</t>
-  </si>
-  <si>
-    <t>Gérant</t>
-  </si>
-  <si>
-    <t>FON-24</t>
-  </si>
-  <si>
-    <t>Médecin de santé publique</t>
-  </si>
-  <si>
-    <t>FON-29</t>
-  </si>
-  <si>
-    <t>Médecin du travail</t>
-  </si>
-  <si>
-    <t>FON-32</t>
-  </si>
-  <si>
-    <t>Régulateur libéral</t>
-  </si>
-  <si>
-    <t>FON-33</t>
-  </si>
-  <si>
-    <t>Salarié en poste fixe</t>
-  </si>
-  <si>
-    <t>FON-36</t>
-  </si>
-  <si>
-    <t>Délégué</t>
-  </si>
-  <si>
-    <t>FON-37</t>
-  </si>
-  <si>
-    <t>Gérant de PUI</t>
-  </si>
-  <si>
-    <t>FON-39</t>
-  </si>
-  <si>
-    <t>Exercice en PMI</t>
-  </si>
-  <si>
-    <t>FON-40</t>
-  </si>
-  <si>
-    <t>Biologiste responsable</t>
-  </si>
-  <si>
-    <t>FON-41</t>
-  </si>
-  <si>
-    <t>Biologiste médical</t>
-  </si>
-  <si>
-    <t>FON-42</t>
-  </si>
-  <si>
-    <t>Assistant collaborateur</t>
-  </si>
-  <si>
-    <t>FON-43</t>
-  </si>
-  <si>
-    <t>Cadre de santé</t>
-  </si>
-  <si>
-    <t>FON-45</t>
-  </si>
-  <si>
-    <t>Directeur des soins</t>
-  </si>
-  <si>
-    <t>FON-46</t>
-  </si>
-  <si>
-    <t>Enseignant salarié</t>
-  </si>
-  <si>
-    <t>FON-47</t>
-  </si>
-  <si>
-    <t>Etudiant remplaçant, adjoint</t>
-  </si>
-  <si>
-    <t>FON-48</t>
-  </si>
-  <si>
-    <t>Interne</t>
-  </si>
-  <si>
-    <t>FON-49</t>
-  </si>
-  <si>
-    <t>Pharmacien responsable BPDO</t>
-  </si>
-  <si>
-    <t>FON-50</t>
-  </si>
-  <si>
-    <t>Pharmacien adjoint BPDO</t>
-  </si>
-  <si>
-    <t>FON-51</t>
-  </si>
-  <si>
-    <t>Remplacement partiel</t>
-  </si>
-  <si>
-    <t>FON-52</t>
-  </si>
-  <si>
-    <t>Etudiant militaire</t>
-  </si>
-  <si>
-    <t>FON-53</t>
-  </si>
-  <si>
-    <t>Médecin assistant</t>
-  </si>
-  <si>
-    <t>FON-54</t>
-  </si>
-  <si>
-    <t>Permanence des soins ambulatoires hors cabinet</t>
-  </si>
-  <si>
-    <t>FON-55</t>
-  </si>
-  <si>
-    <t>Participation libérale aux missions de service public d'un ES</t>
-  </si>
-  <si>
-    <t>FON-56</t>
-  </si>
-  <si>
-    <t>Intervention libérale dans le cadre d'un GCS</t>
-  </si>
-  <si>
-    <t>FON-57</t>
-  </si>
-  <si>
-    <t>Docteur junior</t>
-  </si>
-  <si>
-    <t>FON-58</t>
-  </si>
-  <si>
-    <t>Activité en piscine ou bassin</t>
-  </si>
-  <si>
-    <t>FON-59</t>
-  </si>
-  <si>
-    <t>Gérant d'antenne</t>
-  </si>
-  <si>
-    <t>FON-AU</t>
-  </si>
-  <si>
-    <t>Fonction non définie</t>
   </si>
   <si>
     <t>System URI</t>
@@ -739,7 +736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -845,28 +842,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -888,362 +877,362 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1265,50 +1254,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1330,322 +1319,322 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>133</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>137</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>165</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>167</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>169</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>171</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>175</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>177</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>179</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>183</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>185</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>189</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>195</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="198">
   <si>
     <t>Property</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:00:00+01:00</t>
+    <t>2024-12-13T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -558,6 +558,12 @@
   </si>
   <si>
     <t>Conseiller en génétique</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>Coordonnateur de parcours</t>
   </si>
   <si>
     <t>331</t>
@@ -1307,7 +1313,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1623,18 +1629,26 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="B40" t="s" s="2">
-        <v>195</v>
+      <c r="B41" t="s" s="2">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
